--- a/biology/Botanique/Epimedium/Epimedium.xlsx
+++ b/biology/Botanique/Epimedium/Epimedium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Epimedium sont des plantes appartenant à la famille des Berberidaceae.
 Originaires des forêts de Chine du Sud, elles sont fréquentes de l'Europe de l'Est au Japon, ces plantes vivaces herbacées mesurent entre 20 cm et 1 m de hauteur. Les fleurs jaunes, blanches, roses ou violettes, s'épanouissent au printemps.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Epimedium sont des herbacées vivaces munis de rhizomes souterrains ; elles sont soit caduques soit persistantes, le nouveau feuillage remplaçant au printemps le feuillage précédent.
 Leur mode de croissance est très variable : tige solitaire, tiges groupées, une ou plusieurs feuilles par tige.
@@ -546,7 +560,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Epimedium acuminatum
 Epimedium alpinum
@@ -598,7 +614,9 @@
           <t>Quelques hybrides cultivés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Epimedium × cantabrigiense, hybride de E. alpinum et E. pubigerum
 Epimedium × perralchicum, hybride de E. perralderianum et E. pinnatum subsp. colchicum
